--- a/data/hotels_by_city/Houston/Houston_shard_73.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_73.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d1139613-Reviews-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Candlewood-Suites-Houston-Park-10.h2027092.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,749 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r539746107-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>1139613</t>
+  </si>
+  <si>
+    <t>539746107</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel except for 400 lb gorilla</t>
+  </si>
+  <si>
+    <t>My wife had to rush to find me a hotel because of a schedule  mixup. She found me this hotel. The only thing lacking ,no continental breakfast. I arrived late and had to wait for someone to let me in as the doors are locked. I had a late arrival getting there at 10:45 pm. Finally got to my room,very clean and nice. I was on the 3rd floor of a 4 story hotel. Finally got ready for bed at 11:45pm,exhausted when the 400 lb gorilla started to walk all over the room above me. Not much sound barrier there. Had to wait 30 minutes  till the gorilla finally went to bed. Other than those two things the hotel was nice,friendly staff  and very helpful. In the future I ever stay in a Candlewood I will be on the top floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My wife had to rush to find me a hotel because of a schedule  mixup. She found me this hotel. The only thing lacking ,no continental breakfast. I arrived late and had to wait for someone to let me in as the doors are locked. I had a late arrival getting there at 10:45 pm. Finally got to my room,very clean and nice. I was on the 3rd floor of a 4 story hotel. Finally got ready for bed at 11:45pm,exhausted when the 400 lb gorilla started to walk all over the room above me. Not much sound barrier there. Had to wait 30 minutes  till the gorilla finally went to bed. Other than those two things the hotel was nice,friendly staff  and very helpful. In the future I ever stay in a Candlewood I will be on the top floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r474335410-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>474335410</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Second stay</t>
+  </si>
+  <si>
+    <t>Once again, very accommodating staff. Always friendly and smiling! Bed was super comfy. Room was very clean! I had a room right by the elevators, as I requested. I will def stay here again. They go above and beyond to make sure each guest feels like a VIP!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r434801970-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>434801970</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We visited Houston, and stayed here as it's where our friends live. We were given a room at the back as we requested for a quiet room. While the room is small, it's well equipped. It has a full sized refrigerator, 2 burners, some dishes and cutlery, a microwave. Our only gripe is that the hot water took forever to come on in the shower. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r375663358-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>375663358</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Little apt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was out in texas for business i ended up staying a month here in the candlewood suites it was great rooms were like little nice apt we even had a laundry room. An pantry hot coffee in thr moring i actually got to be very comfortable </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r363493593-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>363493593</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Felt at Home Best comfy beds</t>
+  </si>
+  <si>
+    <t>I have never been to KATY, Texas before, nor stayed in Candlewood Suites. I had come into town, (had hotel pre booked), and they were friendly and helpful. I was there for a Church Conference At The Pentecostals of KATY Texas, and this hotel was the closest and easiest to get to the church and bro eg stores and restarunts that I found. The suites are a full fridge, stove kitchen area, Queen bed. The mattress was the most softest and comfortable bed I have slept on. the whole staff from the manager Grady on down, was very friendly, helpful, and accommodating. They greet you every time you walk in and out. I will definitely be using this hotel any time I come to KATY Texas!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I have never been to KATY, Texas before, nor stayed in Candlewood Suites. I had come into town, (had hotel pre booked), and they were friendly and helpful. I was there for a Church Conference At The Pentecostals of KATY Texas, and this hotel was the closest and easiest to get to the church and bro eg stores and restarunts that I found. The suites are a full fridge, stove kitchen area, Queen bed. The mattress was the most softest and comfortable bed I have slept on. the whole staff from the manager Grady on down, was very friendly, helpful, and accommodating. They greet you every time you walk in and out. I will definitely be using this hotel any time I come to KATY Texas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r347757067-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>347757067</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>I'm just finishing a week at the Candlewood Suites here in Katy. This hotel is about a half mile off the I-10 expressway, in an area full of restaurants and shopping. There is a Kroger supermarket and a Starbucks next to the hotel and Walmart almost across the street. The hotel itself is behind this shopping area making it very quiet. The staff at the hotel are great and I found my room, 308, to be comfortable and quiet, and the bed wonderfully soft. Another good point is free use of the laundry room. Normally, that's $4 or $5 to use. Rooms are equipped with a full kitchen and are spacious. There is also a little store in the lobby and the prices are the cheapest I've ever seen at a hotel. Overall, I've had a great stay and would love to stay here again if the chance arises.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I'm just finishing a week at the Candlewood Suites here in Katy. This hotel is about a half mile off the I-10 expressway, in an area full of restaurants and shopping. There is a Kroger supermarket and a Starbucks next to the hotel and Walmart almost across the street. The hotel itself is behind this shopping area making it very quiet. The staff at the hotel are great and I found my room, 308, to be comfortable and quiet, and the bed wonderfully soft. Another good point is free use of the laundry room. Normally, that's $4 or $5 to use. Rooms are equipped with a full kitchen and are spacious. There is also a little store in the lobby and the prices are the cheapest I've ever seen at a hotel. Overall, I've had a great stay and would love to stay here again if the chance arises.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r304272507-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>304272507</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>Always ask for corporate or weekly rate, otherwise pay more for decent room with suite amenities. Good bed and air unit. Smoke alarm sensitive. Housekeeping nice but infrequent. Counter staff friendly and helpful. Nothing special but an average place to stay when not out an about.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r291396763-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>291396763</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>I recently graduated and started a new job in Houston, and had never been to Texas before.  I found this hotel after spending hours online comparing reviews and locations of various hotels in the area.  Needless to say, I was not disappointed.  Stayed a total of 6 weeks, and was actually kind of sad when I moved out because I had felt at home here.  The room was very clean and up-to-date.  The kitchen has a full-size fridge, two-burner stove, and a dishwasher, and was already stocked with your basic kitchenware, so immediately I was able to stock up on groceries and save money by cooking my own meals everyday.  Speaking of which, it's practically walking distance from two grocery stores and a Walmart, and close to the interstate so everything I needed was within a couple miles.  The staff was very friendly and helped me out on multiple occasions.  The once-a-week housekeeping was great - I came back from work every Friday to a clean room (and a bag of popcorn! haha).  Free laundry is also a huge plus!  The WiFi worked well enough most of the time, but required you to sign in again everyday.  Also, being in a now long-distance relationship, I tried Skype a few times, but it didn't always work on the WiFi.  Small complaint, but not a deal breaker.  
+Overall, this Candlewood Suites is very clean, has a friendly staff, provides good value for...I recently graduated and started a new job in Houston, and had never been to Texas before.  I found this hotel after spending hours online comparing reviews and locations of various hotels in the area.  Needless to say, I was not disappointed.  Stayed a total of 6 weeks, and was actually kind of sad when I moved out because I had felt at home here.  The room was very clean and up-to-date.  The kitchen has a full-size fridge, two-burner stove, and a dishwasher, and was already stocked with your basic kitchenware, so immediately I was able to stock up on groceries and save money by cooking my own meals everyday.  Speaking of which, it's practically walking distance from two grocery stores and a Walmart, and close to the interstate so everything I needed was within a couple miles.  The staff was very friendly and helped me out on multiple occasions.  The once-a-week housekeeping was great - I came back from work every Friday to a clean room (and a bag of popcorn! haha).  Free laundry is also a huge plus!  The WiFi worked well enough most of the time, but required you to sign in again everyday.  Also, being in a now long-distance relationship, I tried Skype a few times, but it didn't always work on the WiFi.  Small complaint, but not a deal breaker.  Overall, this Candlewood Suites is very clean, has a friendly staff, provides good value for the price, and made me feel comfortable in a new location away from friends and family.  I would definitely recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Roberto D, General Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>I recently graduated and started a new job in Houston, and had never been to Texas before.  I found this hotel after spending hours online comparing reviews and locations of various hotels in the area.  Needless to say, I was not disappointed.  Stayed a total of 6 weeks, and was actually kind of sad when I moved out because I had felt at home here.  The room was very clean and up-to-date.  The kitchen has a full-size fridge, two-burner stove, and a dishwasher, and was already stocked with your basic kitchenware, so immediately I was able to stock up on groceries and save money by cooking my own meals everyday.  Speaking of which, it's practically walking distance from two grocery stores and a Walmart, and close to the interstate so everything I needed was within a couple miles.  The staff was very friendly and helped me out on multiple occasions.  The once-a-week housekeeping was great - I came back from work every Friday to a clean room (and a bag of popcorn! haha).  Free laundry is also a huge plus!  The WiFi worked well enough most of the time, but required you to sign in again everyday.  Also, being in a now long-distance relationship, I tried Skype a few times, but it didn't always work on the WiFi.  Small complaint, but not a deal breaker.  
+Overall, this Candlewood Suites is very clean, has a friendly staff, provides good value for...I recently graduated and started a new job in Houston, and had never been to Texas before.  I found this hotel after spending hours online comparing reviews and locations of various hotels in the area.  Needless to say, I was not disappointed.  Stayed a total of 6 weeks, and was actually kind of sad when I moved out because I had felt at home here.  The room was very clean and up-to-date.  The kitchen has a full-size fridge, two-burner stove, and a dishwasher, and was already stocked with your basic kitchenware, so immediately I was able to stock up on groceries and save money by cooking my own meals everyday.  Speaking of which, it's practically walking distance from two grocery stores and a Walmart, and close to the interstate so everything I needed was within a couple miles.  The staff was very friendly and helped me out on multiple occasions.  The once-a-week housekeeping was great - I came back from work every Friday to a clean room (and a bag of popcorn! haha).  Free laundry is also a huge plus!  The WiFi worked well enough most of the time, but required you to sign in again everyday.  Also, being in a now long-distance relationship, I tried Skype a few times, but it didn't always work on the WiFi.  Small complaint, but not a deal breaker.  Overall, this Candlewood Suites is very clean, has a friendly staff, provides good value for the price, and made me feel comfortable in a new location away from friends and family.  I would definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r286574817-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>286574817</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training week with Academy Sports and Outdoors </t>
+  </si>
+  <si>
+    <t>I actually checked out this extended-stay hotel online prior to arriving. I was hoping that it didn't have everything but it showed in the photos. I was pleasantly surprised that it came fully equipped with a full refrigerator utensils stovetop microwave and plenty of room.  Reclean environment. Laundry facilities for those who need use of it and work out room. I asked the front desk clerk Randall  about best local restaurants. Hotel is central to many places such as groceries, shopping, drugstores and a variety of restaurants</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r270565539-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>270565539</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Visiting Friends and Business</t>
+  </si>
+  <si>
+    <t>Great location in Katy, was only 4 miles from where I was visiting.  The front desk was helpful with hotel details and answered all my question with a positive, helpful attitude.  The room was clean and comfortable and met the standard I look for at Candlewood Suites.  Thank you for a good stay.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r270405940-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>270405940</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Wish we could have stayed longer</t>
+  </si>
+  <si>
+    <t>Hubby's birthday weekend. Spacious suite and well stocked kitchen and bathroom essentials. Great channel selections on the tv. Plenty of pillows and blankets. Even took advantage of the workout area. All interaction with the staff was exceptional. True professionals. I wish we could have stayed longer ! Close shopping and dining.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r269379247-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>269379247</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I always stay here when in Houston.  The staff is great and the rooms are nice.  The new grills in the patio area work great and are always clean.  If you need anything go to the front and ask for flo she is so nice and helpfull.MoreShow less</t>
+  </si>
+  <si>
+    <t>Roberto D, General Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>I always stay here when in Houston.  The staff is great and the rooms are nice.  The new grills in the patio area work great and are always clean.  If you need anything go to the front and ask for flo she is so nice and helpfull.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r252077953-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>252077953</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Wanted a different type of hotel room</t>
+  </si>
+  <si>
+    <t>I had been traveling all week and wanted a different set up to "live in" for a day prior to going home.  I have stayed in Candlewood Suites before and know the brand very well.  I was welcomed by the staff, they remembered my name at the front desk and enjoyed our interaction.  The room is large enough to get desk work done facing the TV, a fresh bag of popcorn, and a great internet connection.  I also walked to dinner to get a little exercise.  This hotel is in a great location to either continue to travel on I10, go downtown Houston, or get to the airport within 45 minutes.  I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Roberto D, General Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>I had been traveling all week and wanted a different set up to "live in" for a day prior to going home.  I have stayed in Candlewood Suites before and know the brand very well.  I was welcomed by the staff, they remembered my name at the front desk and enjoyed our interaction.  The room is large enough to get desk work done facing the TV, a fresh bag of popcorn, and a great internet connection.  I also walked to dinner to get a little exercise.  This hotel is in a great location to either continue to travel on I10, go downtown Houston, or get to the airport within 45 minutes.  I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r244990335-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>244990335</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Worth Every Penny!!</t>
+  </si>
+  <si>
+    <t>Stayed here with parents and adult son for a family reunion in Katy. We drove overnight from NM and arrived at 8am. The front desk employees and managers were so very kind and helpful. They promptly had all employees concentrate on readying a room for us 4 extremely weary travelers. The property was clean and well maintained and everything you could need was  in the room and anything that wasn't you could go across the street to Walmart and get. I have the highest respect and praise for this hotel and every single 1 of it's employees!! Highly recommend to anyone going into that area.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r212761624-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>212761624</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Nice for little stay, not for long</t>
+  </si>
+  <si>
+    <t>Been there for couple of weeks, nice for a small business trip or for a short stay if you are in Katy or nearby. Staff is friendly, but not sure of housekeeping. AC was struggling, The kitchen space was too tiny, beds were okay and so was the bathroom. The fitness centre just have couple of treadmills and there's a little shop from where you can buy some stuff to eat (though there are some restaurants just around the corner, few blocks away from the hotel). I agree with other travelers, it is indeed a loud hotel, and if you are back after dark you may struggle to get inside if you dont have a key. Overall, it is an average hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded July 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2014</t>
+  </si>
+  <si>
+    <t>Been there for couple of weeks, nice for a small business trip or for a short stay if you are in Katy or nearby. Staff is friendly, but not sure of housekeeping. AC was struggling, The kitchen space was too tiny, beds were okay and so was the bathroom. The fitness centre just have couple of treadmills and there's a little shop from where you can buy some stuff to eat (though there are some restaurants just around the corner, few blocks away from the hotel). I agree with other travelers, it is indeed a loud hotel, and if you are back after dark you may struggle to get inside if you dont have a key. Overall, it is an average hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r198315718-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>198315718</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Mediocre</t>
+  </si>
+  <si>
+    <t>I have written over 150 reviews and take providing feedback seriously. I hope you find my review helpful.This hotel is an extended-stay property, meaning they only take care of your room once a week. There is no breakfast option, except a small market with pre-packaged foods. The beds were not comfortable. The rooms were stuffy, even with the AC on in March. The ice maker in both our rooms didn't work, and even though we notified them on day 1, by day 6, nothing had been done.I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>I have written over 150 reviews and take providing feedback seriously. I hope you find my review helpful.This hotel is an extended-stay property, meaning they only take care of your room once a week. There is no breakfast option, except a small market with pre-packaged foods. The beds were not comfortable. The rooms were stuffy, even with the AC on in March. The ice maker in both our rooms didn't work, and even though we notified them on day 1, by day 6, nothing had been done.I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r194854067-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>194854067</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Ideal for my needs</t>
+  </si>
+  <si>
+    <t>I have started making regular trips to Katy to visit family -- this was my third trip since Nov. 2013 each being about four nights.  The last two times I stayed at the Holiday Inn Express (right around the corner.)   For me, I like the Candlewood Suites slightly better.  I like the option of the kitchenette (stovetop, microwave, and full sized refrigerator) as I like cooking my own breakfast instead of the breakfast buffet.  I also prefer the privacy of no housekeeping.   The parking lot is well-lit.  I also like the walking trail right next door.  I did not bring my dog this trip, but scoped out the options for that and it seems ideal.  This also has a lot of amenities for the longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I have started making regular trips to Katy to visit family -- this was my third trip since Nov. 2013 each being about four nights.  The last two times I stayed at the Holiday Inn Express (right around the corner.)   For me, I like the Candlewood Suites slightly better.  I like the option of the kitchenette (stovetop, microwave, and full sized refrigerator) as I like cooking my own breakfast instead of the breakfast buffet.  I also prefer the privacy of no housekeeping.   The parking lot is well-lit.  I also like the walking trail right next door.  I did not bring my dog this trip, but scoped out the options for that and it seems ideal.  This also has a lot of amenities for the longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r189890098-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>189890098</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Very nice, good value!</t>
+  </si>
+  <si>
+    <t>I rented a 1 bedroom for my daughter, her husband &amp; 2 toddlers here. I am so impressed with this place; the room I chose was called a 1 bedroom &amp; included a closed off master bedroom &amp; in the "living room" a pull-out sofa bed, flat screen tv &amp; DVD player, very nice kitchen &amp; room for a baby bed. They have a 24-hour vending room with lots of snacks and a nice fitness center. From the outside, it looks very plain, but is so nice on the inside. Very, very quiet, gives you a real sense of security here. I paid an average of about $106 per night - great value. Nice staff. *There is a question below about a pool, honestly, don't know, it was a Christmas visit &amp; so cold, we didn't even check for a pool!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I rented a 1 bedroom for my daughter, her husband &amp; 2 toddlers here. I am so impressed with this place; the room I chose was called a 1 bedroom &amp; included a closed off master bedroom &amp; in the "living room" a pull-out sofa bed, flat screen tv &amp; DVD player, very nice kitchen &amp; room for a baby bed. They have a 24-hour vending room with lots of snacks and a nice fitness center. From the outside, it looks very plain, but is so nice on the inside. Very, very quiet, gives you a real sense of security here. I paid an average of about $106 per night - great value. Nice staff. *There is a question below about a pool, honestly, don't know, it was a Christmas visit &amp; so cold, we didn't even check for a pool!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r181079285-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>181079285</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>The Candlewood suites hotel in Katy, TX is by far one of the best hotels I've have the privilege of staying at. The hotel staff is very hospitable and makes me feel very welcome. Each time I stay at this hotel (mainly for business purposes) my experience is more and more rewarding. I appreciate the hotel staff and I highly recommend this hotel as the "home away from home" place to stay!  Thank you and keep up the good work!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r165805284-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>165805284</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Didn't get a chance to visit the property.</t>
+  </si>
+  <si>
+    <t>I called the hotel on today June 30, 2013 @ 2pm to obtain rates and availability. I will have family members here tonight due to a family emergency. The customer service representative was very rude and short. I received the rates but before I could any further details about the property she hung up on me. That's very rude! Even though your property is very close to my home I will be referring my family members to another hotel. Thanks for a horrible first impression. Staff needs to be taught telephone etiquette. The rep didn't even ask if I wanted to make reservations.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded July 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2013</t>
+  </si>
+  <si>
+    <t>I called the hotel on today June 30, 2013 @ 2pm to obtain rates and availability. I will have family members here tonight due to a family emergency. The customer service representative was very rude and short. I received the rates but before I could any further details about the property she hung up on me. That's very rude! Even though your property is very close to my home I will be referring my family members to another hotel. Thanks for a horrible first impression. Staff needs to be taught telephone etiquette. The rep didn't even ask if I wanted to make reservations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r162549484-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>162549484</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>My valueables went missing from the Hotel room</t>
+  </si>
+  <si>
+    <t>This is worst experience I ever had in my life, and am paying still for it. My laptop, documents including passport,visa, Degree certs, credit cards, jewellery etc., were stolen from my hotel room, when I was out to work. They don't even have floor level cameras. So there is no clue who stole my items from the room and how they got access to.. !!! There is no safety for your stay that, any body has access to any room  anytime. So this hotel doesn't have the basic amenity, of feeling secured. But, the hotel manager was courteous to give ride for 2 days to nearby post office/Banks.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded June 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2013</t>
+  </si>
+  <si>
+    <t>This is worst experience I ever had in my life, and am paying still for it. My laptop, documents including passport,visa, Degree certs, credit cards, jewellery etc., were stolen from my hotel room, when I was out to work. They don't even have floor level cameras. So there is no clue who stole my items from the room and how they got access to.. !!! There is no safety for your stay that, any body has access to any room  anytime. So this hotel doesn't have the basic amenity, of feeling secured. But, the hotel manager was courteous to give ride for 2 days to nearby post office/Banks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r145379449-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>145379449</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Clean &amp; Convenient</t>
+  </si>
+  <si>
+    <t>Hotel is decent for an extended stay hotel. I only stayed two nights for a business trip. My only complaint was the smell in the room and the noise level. I had a room with dogs right next to me that barked all the time. The room smelled faintly, almost like someone had smoked in it despite the fact that it was non-smoking. The hotel was very very clean. Nice linens and towels. Bathroom was dimly lit. The best part was all the outlets in the room!!! I didn't have to search to plug in my laptop, phone, bluetooth, etc. The hotel is also very close to restaurants, walking distance to Buffalo Wild Wings and Starbucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Hotel is decent for an extended stay hotel. I only stayed two nights for a business trip. My only complaint was the smell in the room and the noise level. I had a room with dogs right next to me that barked all the time. The room smelled faintly, almost like someone had smoked in it despite the fact that it was non-smoking. The hotel was very very clean. Nice linens and towels. Bathroom was dimly lit. The best part was all the outlets in the room!!! I didn't have to search to plug in my laptop, phone, bluetooth, etc. The hotel is also very close to restaurants, walking distance to Buffalo Wild Wings and Starbucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r142953661-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>142953661</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>The hotel has a good structure. Rooms have a good size, with a full kitchen and all types of kitchen appliances. No breakfast included. Also, room service is only once a week, so your room/kitchen can get quite messy, unless you wanna do some cleaning by yourself.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r142788352-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>142788352</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>Stayed here before but can't anymore, for pet owners</t>
+  </si>
+  <si>
+    <t>While I have stayed at this hotel many times in the past year I will no longer be staying at this location.  Due to changed in the pet policy from $15/night to $75/night I will have to locate additional options to stay while working in this area.  Please be aware that the website does not reflect this change and still states it is $15/night, but upon check in I was notified that this policy is now $75/night.  As long as you are not traveling with a pet I would recommend this hotel to you as the staff is always very pleasant, one of the front desk ladies always remembers my Husky every time, and the rooms are always fresh and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>While I have stayed at this hotel many times in the past year I will no longer be staying at this location.  Due to changed in the pet policy from $15/night to $75/night I will have to locate additional options to stay while working in this area.  Please be aware that the website does not reflect this change and still states it is $15/night, but upon check in I was notified that this policy is now $75/night.  As long as you are not traveling with a pet I would recommend this hotel to you as the staff is always very pleasant, one of the front desk ladies always remembers my Husky every time, and the rooms are always fresh and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r126623219-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>126623219</t>
+  </si>
+  <si>
+    <t>03/25/2012</t>
+  </si>
+  <si>
+    <t>Great value; will stay again!</t>
+  </si>
+  <si>
+    <t>This hotel is an excellent place to stay for the price! The room I stayed in was clean, fresh and quiet - despite being right by the elevator.  The bed and linen were clean and comfortable. The AC unit worked very well as well as the free wifi internet.Bathrooms had good water pressure, nice size counter tops and storage space beneath the sink.  Good size closet for clothes and luggage storage.  Full size mirror hanging on the wall is very helpful too!  Free self-parking.  Staff was friendly and very helpful.  Not the fanciest hotel, but has everything you need for a pleasant and enjoyable stay.I'll be back in Houston this year and will book this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>This hotel is an excellent place to stay for the price! The room I stayed in was clean, fresh and quiet - despite being right by the elevator.  The bed and linen were clean and comfortable. The AC unit worked very well as well as the free wifi internet.Bathrooms had good water pressure, nice size counter tops and storage space beneath the sink.  Good size closet for clothes and luggage storage.  Full size mirror hanging on the wall is very helpful too!  Free self-parking.  Staff was friendly and very helpful.  Not the fanciest hotel, but has everything you need for a pleasant and enjoyable stay.I'll be back in Houston this year and will book this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r120329149-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>120329149</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t>Always a great stay</t>
+  </si>
+  <si>
+    <t>I stayed here for the weekend and have always liked this hotel chain.  The beds are comfortable, rooms kept very clean, large soft towels, two burner stove to cook, and they take pets with a deposit!!!  You just can't go wrong staying here!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r120139063-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>120139063</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Nice accommodations!</t>
+  </si>
+  <si>
+    <t>This is a residence-inn type of lodging. Because we didn't need a full apartment for a weekend stay, we chose the "studio suite." It was spacious and well appointed, with a full kitchenette including a full-size refrigerator, and all the amenities you would expect in any nice hotel. There is no breakfast service like you'd find in many hotels -- but you can prepare your own (there's a supermarket next door), or get meals at the many nearby restaurants.A great find. We'd definitely stay here again!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r109894087-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>109894087</t>
+  </si>
+  <si>
+    <t>05/25/2011</t>
+  </si>
+  <si>
+    <t>Surpurb value and quality</t>
+  </si>
+  <si>
+    <t>I generally try to steer clear of extended stay type propertys that offer kitchenetts etc. because you are likely to follow a group who burned and ate three square meals a day within the confines of the room for the past couple weeks, so when this property accepted my low ball "name your own price" priceline offer I cringed a bit. However, I could not have been more surprised or more pleased with what my low ball offer got me. This is an excellant facility and a surpurb value.  Granted it is a newer property but the comfort, cleanliness and quality of the rooms rival some 4 star hotels I have stayed at and combined with an office staff that goes out of their way to insure all of your needs are taken care of makes this property a hidden gem in my book.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I generally try to steer clear of extended stay type propertys that offer kitchenetts etc. because you are likely to follow a group who burned and ate three square meals a day within the confines of the room for the past couple weeks, so when this property accepted my low ball "name your own price" priceline offer I cringed a bit. However, I could not have been more surprised or more pleased with what my low ball offer got me. This is an excellant facility and a surpurb value.  Granted it is a newer property but the comfort, cleanliness and quality of the rooms rival some 4 star hotels I have stayed at and combined with an office staff that goes out of their way to insure all of your needs are taken care of makes this property a hidden gem in my book.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r103689626-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>103689626</t>
+  </si>
+  <si>
+    <t>04/11/2011</t>
+  </si>
+  <si>
+    <t>Great place to land for a night</t>
+  </si>
+  <si>
+    <t>A newer Candlewood, with all the bells and whistles we have come to enjoy with this chain.   Plus, we found it “on sale” for only 5000 Priority Club points!    Great service, and close to lots of shopping and restaurants.   Not too far from I-10.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r100531947-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>100531947</t>
+  </si>
+  <si>
+    <t>03/17/2011</t>
+  </si>
+  <si>
+    <t>4Cs - Clean, comfortable, convenient &amp; cheap</t>
+  </si>
+  <si>
+    <t>This is the first time I've stayed at a Candlewood Suites and I was very impressed. I booked them because of their price and their location.  $70/night for a studio with a full kitchen and king-sized bed is a great price, and they are close to everything in Katy, located right off of Fry Road, just north of the Katy Freeway.   The room was spotless, spacious and very quiet, the bed was extremely comfortable.  A very nice big screen TV with a DVD player, and free DVDs at the front desk.   The kitchen was nicely equipped, though we didn't use much beyond a few plates, the microwave and the coffee maker and there's a nice area out to the side of the building with BBQ grills and utensils you can check out from the front desk.  The building looks to be very new.  
+Since this is an extended stay type hotel, there is no daily maid service (service every 4 days if you stay that long), or you could always exchange your linens at the front desk whenever you wanted to.  
+I appreciated that they had a computer with a printer for no charge in the lobby.  There's no restaurant, but there is a little store with many basics or you could walk next door to the grocery store.  You are within minutes of tons of restaurants on Fry Road, also.  
+The only thing I can complain about is that...This is the first time I've stayed at a Candlewood Suites and I was very impressed. I booked them because of their price and their location.  $70/night for a studio with a full kitchen and king-sized bed is a great price, and they are close to everything in Katy, located right off of Fry Road, just north of the Katy Freeway.   The room was spotless, spacious and very quiet, the bed was extremely comfortable.  A very nice big screen TV with a DVD player, and free DVDs at the front desk.   The kitchen was nicely equipped, though we didn't use much beyond a few plates, the microwave and the coffee maker and there's a nice area out to the side of the building with BBQ grills and utensils you can check out from the front desk.  The building looks to be very new.  Since this is an extended stay type hotel, there is no daily maid service (service every 4 days if you stay that long), or you could always exchange your linens at the front desk whenever you wanted to.  I appreciated that they had a computer with a printer for no charge in the lobby.  There's no restaurant, but there is a little store with many basics or you could walk next door to the grocery store.  You are within minutes of tons of restaurants on Fry Road, also.  The only thing I can complain about is that for the first two days of our stay it took the shower a really long time to warm up and never got really hot.  By the third day, however, they seemed to have fixed the problems and hot water was in abundance.  Overall, it was a great stay and I think I've found a new favorite hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>This is the first time I've stayed at a Candlewood Suites and I was very impressed. I booked them because of their price and their location.  $70/night for a studio with a full kitchen and king-sized bed is a great price, and they are close to everything in Katy, located right off of Fry Road, just north of the Katy Freeway.   The room was spotless, spacious and very quiet, the bed was extremely comfortable.  A very nice big screen TV with a DVD player, and free DVDs at the front desk.   The kitchen was nicely equipped, though we didn't use much beyond a few plates, the microwave and the coffee maker and there's a nice area out to the side of the building with BBQ grills and utensils you can check out from the front desk.  The building looks to be very new.  
+Since this is an extended stay type hotel, there is no daily maid service (service every 4 days if you stay that long), or you could always exchange your linens at the front desk whenever you wanted to.  
+I appreciated that they had a computer with a printer for no charge in the lobby.  There's no restaurant, but there is a little store with many basics or you could walk next door to the grocery store.  You are within minutes of tons of restaurants on Fry Road, also.  
+The only thing I can complain about is that...This is the first time I've stayed at a Candlewood Suites and I was very impressed. I booked them because of their price and their location.  $70/night for a studio with a full kitchen and king-sized bed is a great price, and they are close to everything in Katy, located right off of Fry Road, just north of the Katy Freeway.   The room was spotless, spacious and very quiet, the bed was extremely comfortable.  A very nice big screen TV with a DVD player, and free DVDs at the front desk.   The kitchen was nicely equipped, though we didn't use much beyond a few plates, the microwave and the coffee maker and there's a nice area out to the side of the building with BBQ grills and utensils you can check out from the front desk.  The building looks to be very new.  Since this is an extended stay type hotel, there is no daily maid service (service every 4 days if you stay that long), or you could always exchange your linens at the front desk whenever you wanted to.  I appreciated that they had a computer with a printer for no charge in the lobby.  There's no restaurant, but there is a little store with many basics or you could walk next door to the grocery store.  You are within minutes of tons of restaurants on Fry Road, also.  The only thing I can complain about is that for the first two days of our stay it took the shower a really long time to warm up and never got really hot.  By the third day, however, they seemed to have fixed the problems and hot water was in abundance.  Overall, it was a great stay and I think I've found a new favorite hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r82638962-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>82638962</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>The Best Candlewood Suites Ever!!!!</t>
+  </si>
+  <si>
+    <t>This had to be the best candlewood suites I have ever stayed in. The service from the time I made my reservations to any changes I had was unbelieveable. I made reservations for myself and close to 7 other rooms for my family as we were staying there for my brother's wedding and they all loved it. The front desk staff is awesome and helpful, as they should be, but you always hear about the front desk staff that did something bad. I think it is time to recognize those that do their job to the best of their abilities and satisfy what people expect from them. Great Job Candlewood Suites. It is in a great location as well restaurants and shopping are near by and in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>This had to be the best candlewood suites I have ever stayed in. The service from the time I made my reservations to any changes I had was unbelieveable. I made reservations for myself and close to 7 other rooms for my family as we were staying there for my brother's wedding and they all loved it. The front desk staff is awesome and helpful, as they should be, but you always hear about the front desk staff that did something bad. I think it is time to recognize those that do their job to the best of their abilities and satisfy what people expect from them. Great Job Candlewood Suites. It is in a great location as well restaurants and shopping are near by and in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r80593218-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>80593218</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>Wonderful, Clean Hotel, Cheap Rates!</t>
+  </si>
+  <si>
+    <t>We were a little worried since the hotel only had 2 stars, but we were pleasantly surprised in every department.  Heather at the check in desk was friendly and efficient, and called us about 15 minutes after we checked in to make sure our room was to our satisfaction.  Hotel is new and very clean.  Room had lots of space, we didn't need the kitchen area for our one night stay but it would be nice for longer stays.  I am a clean freak and I felt right at home in the room including the bedding and the bathroom.  We will DEFINITELY stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r69379910-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>69379910</t>
+  </si>
+  <si>
+    <t>07/01/2010</t>
+  </si>
+  <si>
+    <t>A great extended stay Hotel</t>
+  </si>
+  <si>
+    <t>We were there for three nights and enjoyed a quiet, cool and comfortable room.  There was a lot of space in this suite with a fully equipped kitchen.  We did not use the kitchen except to make coffee.  There is no complimentary breakfast, but we knew that.  A great place in Kary,TX.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r28888170-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>28888170</t>
+  </si>
+  <si>
+    <t>04/27/2009</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new, and I was told they opened in July 2008.  It was clean and fresh smelling.  It is located two blocks off the interstate, so there was no noise.  Not much of a view (you can see the back of a WalMart outside the window)  There is a Starbucks next door and a few average eating places in the immediate area.  I noticed that the water in the shower was not as hot as what was coming from the sink.  I was told that they put a stop on it for safety reasons so that you don't get scalded.  However, the shower was not as hot as I like.  The internet in the business center was not operational, so the office printed my boarding passes for me.  We stayed in Katy because my husband was seeing a doctor there, but it is quite a distance from Houston, approx. one hour from downtown, so you have to drive a lot to get anywhere, because there is not much to do in Katy.   It is a good place to stay if you are just passing through.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new, and I was told they opened in July 2008.  It was clean and fresh smelling.  It is located two blocks off the interstate, so there was no noise.  Not much of a view (you can see the back of a WalMart outside the window)  There is a Starbucks next door and a few average eating places in the immediate area.  I noticed that the water in the shower was not as hot as what was coming from the sink.  I was told that they put a stop on it for safety reasons so that you don't get scalded.  However, the shower was not as hot as I like.  The internet in the business center was not operational, so the office printed my boarding passes for me.  We stayed in Katy because my husband was seeing a doctor there, but it is quite a distance from Houston, approx. one hour from downtown, so you have to drive a lot to get anywhere, because there is not much to do in Katy.   It is a good place to stay if you are just passing through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r27104600-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>27104600</t>
+  </si>
+  <si>
+    <t>03/30/2009</t>
+  </si>
+  <si>
+    <t>It was OK.</t>
+  </si>
+  <si>
+    <t>I stayed at this location because I missed my flight out of IAH.  The hotel was clean and nice.  The staff upon check-in was a little cold but later in the evening the new staff was very friendly.  The kitchen was at the door, it was open space.  The bathroom was nice and very clean.  The television was a bit far from the bed.  It was overpriced but it was a good stay.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1284,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1316,2324 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>189</v>
+      </c>
+      <c r="X21" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" t="s">
+        <v>255</v>
+      </c>
+      <c r="L31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
+        <v>145</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>276</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_73.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_73.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,85 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r587837210-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>1139613</t>
+  </si>
+  <si>
+    <t>587837210</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Week stay in Katy</t>
+  </si>
+  <si>
+    <t>We arrived at 2am due to flight delays.
+I was expecting problems checking in but the desk agent was great! Had keys ready and we were in the room very quickly!
+Our luggage was delayed, sent to the hotel later in the afternoon. They looked after it very well!
+All the employees I have encountered from the front desk, maintenance and janitors.
+The room is lovely, clean, good sized, well equipped for cooking light meals. Two rings, pots, pans, silverware, microwave, coffee machine, dishwasher and some dishwasher stuff to get you started.
+There is a larder with free coffee and tea on the go all the time. Also a ‘honesty’ cupboard with lots of good items for a quick snack and breakfast.
+Outside large parking lot with plenty of space. Undercover BBQ area with two gas BBQ’s. Plenty of seating to enjoy the sunshine. No pool.
+The have a locker by the front desk where you can lend slow cooker, extra silverware and lots of other items.
+Free use of washer and dryer, just buy the soap, at reception or much cheaper at Walmart!
+Walmart is right across the street and with 5 to 10 minutes walk loads of restaurants from fast to to nice dining.
+The only downside is housekeeping is once every seven days. You can change towels at reception anytime, but you have to make you own bed everyday!
+I have added several photos none of the...We arrived at 2am due to flight delays.I was expecting problems checking in but the desk agent was great! Had keys ready and we were in the room very quickly!Our luggage was delayed, sent to the hotel later in the afternoon. They looked after it very well!All the employees I have encountered from the front desk, maintenance and janitors.The room is lovely, clean, good sized, well equipped for cooking light meals. Two rings, pots, pans, silverware, microwave, coffee machine, dishwasher and some dishwasher stuff to get you started.There is a larder with free coffee and tea on the go all the time. Also a ‘honesty’ cupboard with lots of good items for a quick snack and breakfast.Outside large parking lot with plenty of space. Undercover BBQ area with two gas BBQ’s. Plenty of seating to enjoy the sunshine. No pool.The have a locker by the front desk where you can lend slow cooker, extra silverware and lots of other items.Free use of washer and dryer, just buy the soap, at reception or much cheaper at Walmart!Walmart is right across the street and with 5 to 10 minutes walk loads of restaurants from fast to to nice dining.The only downside is housekeeping is once every seven days. You can change towels at reception anytime, but you have to make you own bed everyday!I have added several photos none of the room as they are the same as others or their own website!Yes, I would stay here again if I am in this area!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We arrived at 2am due to flight delays.
+I was expecting problems checking in but the desk agent was great! Had keys ready and we were in the room very quickly!
+Our luggage was delayed, sent to the hotel later in the afternoon. They looked after it very well!
+All the employees I have encountered from the front desk, maintenance and janitors.
+The room is lovely, clean, good sized, well equipped for cooking light meals. Two rings, pots, pans, silverware, microwave, coffee machine, dishwasher and some dishwasher stuff to get you started.
+There is a larder with free coffee and tea on the go all the time. Also a ‘honesty’ cupboard with lots of good items for a quick snack and breakfast.
+Outside large parking lot with plenty of space. Undercover BBQ area with two gas BBQ’s. Plenty of seating to enjoy the sunshine. No pool.
+The have a locker by the front desk where you can lend slow cooker, extra silverware and lots of other items.
+Free use of washer and dryer, just buy the soap, at reception or much cheaper at Walmart!
+Walmart is right across the street and with 5 to 10 minutes walk loads of restaurants from fast to to nice dining.
+The only downside is housekeeping is once every seven days. You can change towels at reception anytime, but you have to make you own bed everyday!
+I have added several photos none of the...We arrived at 2am due to flight delays.I was expecting problems checking in but the desk agent was great! Had keys ready and we were in the room very quickly!Our luggage was delayed, sent to the hotel later in the afternoon. They looked after it very well!All the employees I have encountered from the front desk, maintenance and janitors.The room is lovely, clean, good sized, well equipped for cooking light meals. Two rings, pots, pans, silverware, microwave, coffee machine, dishwasher and some dishwasher stuff to get you started.There is a larder with free coffee and tea on the go all the time. Also a ‘honesty’ cupboard with lots of good items for a quick snack and breakfast.Outside large parking lot with plenty of space. Undercover BBQ area with two gas BBQ’s. Plenty of seating to enjoy the sunshine. No pool.The have a locker by the front desk where you can lend slow cooker, extra silverware and lots of other items.Free use of washer and dryer, just buy the soap, at reception or much cheaper at Walmart!Walmart is right across the street and with 5 to 10 minutes walk loads of restaurants from fast to to nice dining.The only downside is housekeeping is once every seven days. You can change towels at reception anytime, but you have to make you own bed everyday!I have added several photos none of the room as they are the same as others or their own website!Yes, I would stay here again if I am in this area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r573489340-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>573489340</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Third stay. SHINE Ladies Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff very friendly and accommodating. Was not able to get room by elevator, nor check in early, but they worked so hard to accommodate me. Beds comfy as always. Clean room. Enjoyed my stay. This time there more ladies staying for the same conference I would be attending. They made a welcome sign and left it up, even til the Monday following Monday when I believe I was only left at that hotel from conference. I thought that was so nice of them. They even had us sign it! </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r539746107-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>1139613</t>
-  </si>
-  <si>
     <t>539746107</t>
   </si>
   <si>
@@ -177,9 +244,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>My wife had to rush to find me a hotel because of a schedule  mixup. She found me this hotel. The only thing lacking ,no continental breakfast. I arrived late and had to wait for someone to let me in as the doors are locked. I had a late arrival getting there at 10:45 pm. Finally got to my room,very clean and nice. I was on the 3rd floor of a 4 story hotel. Finally got ready for bed at 11:45pm,exhausted when the 400 lb gorilla started to walk all over the room above me. Not much sound barrier there. Had to wait 30 minutes  till the gorilla finally went to bed. Other than those two things the hotel was nice,friendly staff  and very helpful. In the future I ever stay in a Candlewood I will be on the top floor.More</t>
   </si>
   <si>
@@ -222,7 +286,46 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r415449560-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>415449560</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Nice clean close to anemities quick acess to I 10</t>
+  </si>
+  <si>
+    <t>stayed there for 2 nights for our daughters wedding. There was a small kitchen in the room that we didn't use but it was there. The rooms were a decent size you didn't feel like you were cramped. I would stay there again.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r392138304-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>392138304</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel- quiet and safe</t>
+  </si>
+  <si>
+    <t>Loved this hotel. It was awesome to stay in such a great place after a long day of driving. They have spacious rooms, full refrigerators, microwave, stove top, big TV, and even outdoor grills. The only issue we had was that our ice maker was broken. It really wasn't an issue as we only stayed 1 night. The front desk personnel was very attentive and friendly.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r375663358-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
@@ -243,9 +346,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r363493593-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -286,6 +386,39 @@
   </si>
   <si>
     <t>I'm just finishing a week at the Candlewood Suites here in Katy. This hotel is about a half mile off the I-10 expressway, in an area full of restaurants and shopping. There is a Kroger supermarket and a Starbucks next to the hotel and Walmart almost across the street. The hotel itself is behind this shopping area making it very quiet. The staff at the hotel are great and I found my room, 308, to be comfortable and quiet, and the bed wonderfully soft. Another good point is free use of the laundry room. Normally, that's $4 or $5 to use. Rooms are equipped with a full kitchen and are spacious. There is also a little store in the lobby and the prices are the cheapest I've ever seen at a hotel. Overall, I've had a great stay and would love to stay here again if the chance arises.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r328818595-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>328818595</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Candlewood worth the visit.</t>
+  </si>
+  <si>
+    <t>Had a quick overnight business trip.  The Candlewood provided a welcome retreat.  Extremely clean hotel.  Staff extraordinarily polite.  Room amenities a plenty. Shower water pressure impressive.  Highly recommend this Katy hotel.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r316151976-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>316151976</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Nice stay.</t>
+  </si>
+  <si>
+    <t>I stayed at this location during June/July. This location is very clean, very updated.Great personnel, friendly, attentive. No problems other then getting hot water on occasion, but I believe they got that fixed.Katy area seemed a bit over priced but there is shopping, groceries, eat out, and others very close to site.Would stay there again if in the area.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r304272507-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
@@ -350,6 +483,39 @@
     <t>I actually checked out this extended-stay hotel online prior to arriving. I was hoping that it didn't have everything but it showed in the photos. I was pleasantly surprised that it came fully equipped with a full refrigerator utensils stovetop microwave and plenty of room.  Reclean environment. Laundry facilities for those who need use of it and work out room. I asked the front desk clerk Randall  about best local restaurants. Hotel is central to many places such as groceries, shopping, drugstores and a variety of restaurants</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r281928282-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>281928282</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Just checked in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have just checked in for a 9 week business stay.Everything is excellent from check in to the room.Everything I expected, clean, kitchen utincils including towels, dishwashing liquids,  extra clean ex,  and popcorn. I will up date this stay upon completion. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r275193531-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>275193531</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>A great place that I adore</t>
+  </si>
+  <si>
+    <t>The front desk was helpful with the great staff. The rooms was very nice, clean and comfortable. Suitable for family trip because I did bring my family. The area of hotel was so peaceful. It was near shopping center and business park.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r270565539-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -410,6 +576,45 @@
     <t>I always stay here when in Houston.  The staff is great and the rooms are nice.  The new grills in the patio area work great and are always clean.  If you need anything go to the front and ask for flo she is so nice and helpfull.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r262917253-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>262917253</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Good extended stay hotel</t>
+  </si>
+  <si>
+    <t>Good location just off the highway but set back a few blocks so no highway noise. We had the basic (smallest) studio room which was fine for one night but for two people it wouldn’t be good for extended stay since it didn’t have a sofa, only one arm chair and the two desk type chairs at the table.  Loved the little kitchenette (microwave and two burner cooktop but no oven). It had cooking and dining supplies and utensils (enough for two people) and even had a dishwasher. As a platinum member we got a couple of welcome snacks (chips and cookies) plus a bag of microwave popcorn was in the room. The only thing missing (and to me this was a big deal) was a coffee maker! If I had realized that I would have brought my own single serve coffee maker. They do offer free coffee in the lobby area but I prefer making coffee in my room and not having to dress to go downstairs. I don’t know if they recently renovated but everything seemed fairly new. Room was spotless, bed was comfy with soft sheets, bath towels were nice quality too. Even though we were right next to the elevator the room was quiet. First time to stay at this brand and would probably stay again if we are on a road trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Good location just off the highway but set back a few blocks so no highway noise. We had the basic (smallest) studio room which was fine for one night but for two people it wouldn’t be good for extended stay since it didn’t have a sofa, only one arm chair and the two desk type chairs at the table.  Loved the little kitchenette (microwave and two burner cooktop but no oven). It had cooking and dining supplies and utensils (enough for two people) and even had a dishwasher. As a platinum member we got a couple of welcome snacks (chips and cookies) plus a bag of microwave popcorn was in the room. The only thing missing (and to me this was a big deal) was a coffee maker! If I had realized that I would have brought my own single serve coffee maker. They do offer free coffee in the lobby area but I prefer making coffee in my room and not having to dress to go downstairs. I don’t know if they recently renovated but everything seemed fairly new. Room was spotless, bed was comfy with soft sheets, bath towels were nice quality too. Even though we were right next to the elevator the room was quiet. First time to stay at this brand and would probably stay again if we are on a road trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r258825380-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>258825380</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Best Place to stay in Texas!--Rated Superb</t>
+  </si>
+  <si>
+    <t>The professionals at Candlewood Katy Houston Park Row are by far the most courteous and helpful in the business.  After staying downtown Houston for a week and coming here, I felt like I was in paradise.  Beautiful stainless steel pots and pans, GE Appliances,cozy sheets and spa like towels.  In addition,  a very nice work out room and newly renovated entry and business center was happening this last week to make my stay unique.  Everyone I encountered during my two week stay went above the call of duty and out of their way to insure that I never felt like I was away from home.  Thank you to the entire team for giving me such an extraordinary extended stay experience.  Roberto Dorta took care to be sure I never worried about rides to the hospital and was always on time.  Brenda came to find me while grocery shopping next door to let me know I had inadvertently left my cell phone at work one friday afternoon and made sure I got it back so my family and I would not be inconvenienced,or worried. India and Marlee at the reception desk are the sweetest people ever and very genuine.And a great big shout out to Mr. Louis Lopez who is an all around amazing individual who goes out of his way to be sure everything is 110%. Arguably the best team in the hotel industry, I have had much experience and...The professionals at Candlewood Katy Houston Park Row are by far the most courteous and helpful in the business.  After staying downtown Houston for a week and coming here, I felt like I was in paradise.  Beautiful stainless steel pots and pans, GE Appliances,cozy sheets and spa like towels.  In addition,  a very nice work out room and newly renovated entry and business center was happening this last week to make my stay unique.  Everyone I encountered during my two week stay went above the call of duty and out of their way to insure that I never felt like I was away from home.  Thank you to the entire team for giving me such an extraordinary extended stay experience.  Roberto Dorta took care to be sure I never worried about rides to the hospital and was always on time.  Brenda came to find me while grocery shopping next door to let me know I had inadvertently left my cell phone at work one friday afternoon and made sure I got it back so my family and I would not be inconvenienced,or worried. India and Marlee at the reception desk are the sweetest people ever and very genuine.And a great big shout out to Mr. Louis Lopez who is an all around amazing individual who goes out of his way to be sure everything is 110%. Arguably the best team in the hotel industry, I have had much experience and this place impresses.  FREE LAUNDRY SERVICE AS WELL WITH HE MACHINES, and phenomenal housekeeping staff who take pride in their work .  it doesn't get any better. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>The professionals at Candlewood Katy Houston Park Row are by far the most courteous and helpful in the business.  After staying downtown Houston for a week and coming here, I felt like I was in paradise.  Beautiful stainless steel pots and pans, GE Appliances,cozy sheets and spa like towels.  In addition,  a very nice work out room and newly renovated entry and business center was happening this last week to make my stay unique.  Everyone I encountered during my two week stay went above the call of duty and out of their way to insure that I never felt like I was away from home.  Thank you to the entire team for giving me such an extraordinary extended stay experience.  Roberto Dorta took care to be sure I never worried about rides to the hospital and was always on time.  Brenda came to find me while grocery shopping next door to let me know I had inadvertently left my cell phone at work one friday afternoon and made sure I got it back so my family and I would not be inconvenienced,or worried. India and Marlee at the reception desk are the sweetest people ever and very genuine.And a great big shout out to Mr. Louis Lopez who is an all around amazing individual who goes out of his way to be sure everything is 110%. Arguably the best team in the hotel industry, I have had much experience and...The professionals at Candlewood Katy Houston Park Row are by far the most courteous and helpful in the business.  After staying downtown Houston for a week and coming here, I felt like I was in paradise.  Beautiful stainless steel pots and pans, GE Appliances,cozy sheets and spa like towels.  In addition,  a very nice work out room and newly renovated entry and business center was happening this last week to make my stay unique.  Everyone I encountered during my two week stay went above the call of duty and out of their way to insure that I never felt like I was away from home.  Thank you to the entire team for giving me such an extraordinary extended stay experience.  Roberto Dorta took care to be sure I never worried about rides to the hospital and was always on time.  Brenda came to find me while grocery shopping next door to let me know I had inadvertently left my cell phone at work one friday afternoon and made sure I got it back so my family and I would not be inconvenienced,or worried. India and Marlee at the reception desk are the sweetest people ever and very genuine.And a great big shout out to Mr. Louis Lopez who is an all around amazing individual who goes out of his way to be sure everything is 110%. Arguably the best team in the hotel industry, I have had much experience and this place impresses.  FREE LAUNDRY SERVICE AS WELL WITH HE MACHINES, and phenomenal housekeeping staff who take pride in their work .  it doesn't get any better. :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r252077953-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -455,9 +660,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r212761624-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -485,6 +687,48 @@
     <t>Been there for couple of weeks, nice for a small business trip or for a short stay if you are in Katy or nearby. Staff is friendly, but not sure of housekeeping. AC was struggling, The kitchen space was too tiny, beds were okay and so was the bathroom. The fitness centre just have couple of treadmills and there's a little shop from where you can buy some stuff to eat (though there are some restaurants just around the corner, few blocks away from the hotel). I agree with other travelers, it is indeed a loud hotel, and if you are back after dark you may struggle to get inside if you dont have a key. Overall, it is an average hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r211902360-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>211902360</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Great hotel to stay alone or with Family</t>
+  </si>
+  <si>
+    <t>I had to stay here for a night and I felt it was a good hotel. Few pros:Spacious roomKitchenette with a full size fridge, microwave, and rangecomfy bedFew cons:I could hear outside and above my roomThe A/C was not well maintained, I went from stuffy to cold in a few hours</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r210478898-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>210478898</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Ok for business</t>
+  </si>
+  <si>
+    <t>My company booked me into this hotel last week. The room was big and clean, had a full kitchen, which is great if you would have to be there for a long stay. The internet worked very well, also. Some things to know.....it is a loud hotel, meaning that you can clearly hear the people moving around on top of you and to each side. I didn't have any hot water in my shower, but did have in the sinks. There is only maid service once a week, and there is no breakfast served, but you can purchase. Additionally, be aware that if you arrive after dark, the doors are locked. You're supposed to be able to get a key from a little lock box, but it didn't work for me, but there was someone at the front desk that saw me and opened the doors for me. This is ok, but I probably wouldn't book it myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Park 10, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>My company booked me into this hotel last week. The room was big and clean, had a full kitchen, which is great if you would have to be there for a long stay. The internet worked very well, also. Some things to know.....it is a loud hotel, meaning that you can clearly hear the people moving around on top of you and to each side. I didn't have any hot water in my shower, but did have in the sinks. There is only maid service once a week, and there is no breakfast served, but you can purchase. Additionally, be aware that if you arrive after dark, the doors are locked. You're supposed to be able to get a key from a little lock box, but it didn't work for me, but there was someone at the front desk that saw me and opened the doors for me. This is ok, but I probably wouldn't book it myself.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r198315718-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -554,6 +798,45 @@
     <t>I rented a 1 bedroom for my daughter, her husband &amp; 2 toddlers here. I am so impressed with this place; the room I chose was called a 1 bedroom &amp; included a closed off master bedroom &amp; in the "living room" a pull-out sofa bed, flat screen tv &amp; DVD player, very nice kitchen &amp; room for a baby bed. They have a 24-hour vending room with lots of snacks and a nice fitness center. From the outside, it looks very plain, but is so nice on the inside. Very, very quiet, gives you a real sense of security here. I paid an average of about $106 per night - great value. Nice staff. *There is a question below about a pool, honestly, don't know, it was a Christmas visit &amp; so cold, we didn't even check for a pool!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r182946196-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>182946196</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Reasonable, surprisingly quite, clean &amp; cozy</t>
+  </si>
+  <si>
+    <t>We were relocating &amp; need an extended stay until we secured our permanent house. We book for an initial 1 week for 2 adults &amp; 2 elementary children, a room with 2 queen size beds and a cooker/ microwave. We thought that let's stay here &amp; if not good, we will move. As it turns out, we are very happy with it. We are at the far end of the wing of the property. Except for the occasional noise from the exit door for people to go out &amp; smoke, there're no major noise. It was quite &amp; the room is clean. We ended up stayed for 3 weeks until we secured our house.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We were relocating &amp; need an extended stay until we secured our permanent house. We book for an initial 1 week for 2 adults &amp; 2 elementary children, a room with 2 queen size beds and a cooker/ microwave. We thought that let's stay here &amp; if not good, we will move. As it turns out, we are very happy with it. We are at the far end of the wing of the property. Except for the occasional noise from the exit door for people to go out &amp; smoke, there're no major noise. It was quite &amp; the room is clean. We ended up stayed for 3 weeks until we secured our house.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r181267090-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>181267090</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>My husband stayed in the are for work for four months. Beautiful place. The room was very clean. The beds and pillows we're very comfortble and the AC worked like a charm! Walmart and Kroger less than a block a way. A beautiful walking trail right next door. The parking lot is very well lit. It sits off the main road so no traffic noise. Apartment complex in adjacent property but seems nice. Nice area. Has Direct TV with ALL the channels of home including HBO and Max. Room has electric stovetop , regular sized microwave, 5 cup coffee pot, toaster ovens available to rent but bringing your own is accepted and cheaper. Plenty of space. He didn't stay in the Suite but the maid was nice enough to let us look. Very spacious. Seperate living room, large kitchen and table, big bathroom and bedroom was big too with flat screen TVs in both rooms. I would definitely recommend staying here overnight or for an extended time.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband stayed in the are for work for four months. Beautiful place. The room was very clean. The beds and pillows we're very comfortble and the AC worked like a charm! Walmart and Kroger less than a block a way. A beautiful walking trail right next door. The parking lot is very well lit. It sits off the main road so no traffic noise. Apartment complex in adjacent property but seems nice. Nice area. Has Direct TV with ALL the channels of home including HBO and Max. Room has electric stovetop , regular sized microwave, 5 cup coffee pot, toaster ovens available to rent but bringing your own is accepted and cheaper. Plenty of space. He didn't stay in the Suite but the maid was nice enough to let us look. Very spacious. Seperate living room, large kitchen and table, big bathroom and bedroom was big too with flat screen TVs in both rooms. I would definitely recommend staying here overnight or for an extended time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r181079285-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -623,6 +906,42 @@
     <t>This is worst experience I ever had in my life, and am paying still for it. My laptop, documents including passport,visa, Degree certs, credit cards, jewellery etc., were stolen from my hotel room, when I was out to work. They don't even have floor level cameras. So there is no clue who stole my items from the room and how they got access to.. !!! There is no safety for your stay that, any body has access to any room  anytime. So this hotel doesn't have the basic amenity, of feeling secured. But, the hotel manager was courteous to give ride for 2 days to nearby post office/Banks.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r154329302-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>154329302</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Close to I-10</t>
+  </si>
+  <si>
+    <t>Ok this was this first hotel I stayed at in Texas last week! Pros.. Friendly guest services, safe parking, no bugs, full kitchen with fridge, stove top &amp; microwave with popcorn &amp; bowl, free DVD rentals, close to malls, I-10, grocery store &amp; restaurants. As long as you have a car you can hop on I-10 &amp; get anywhere.  Cons... I did not like whatever cleaning solution was used because it left a bad odor  but as soon as I reported it the manager quickly responded &amp; took care of me &amp; my concerns! And customer service means the world toMe so yes I would stay here again if ever in the Katy area No breakfast but ihop &amp; Denny's are closeMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Ok this was this first hotel I stayed at in Texas last week! Pros.. Friendly guest services, safe parking, no bugs, full kitchen with fridge, stove top &amp; microwave with popcorn &amp; bowl, free DVD rentals, close to malls, I-10, grocery store &amp; restaurants. As long as you have a car you can hop on I-10 &amp; get anywhere.  Cons... I did not like whatever cleaning solution was used because it left a bad odor  but as soon as I reported it the manager quickly responded &amp; took care of me &amp; my concerns! And customer service means the world toMe so yes I would stay here again if ever in the Katy area No breakfast but ihop &amp; Denny's are closeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r145542996-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>145542996</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Easy off I-10 at Fry Rd., walking distance to many restaurants &amp; stores. Rooms were very clean &amp; comfortable. Wireless Internet was solid but does get overloaded at peak times. Staff was very friendly and helpful.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r145379449-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -680,6 +999,45 @@
     <t>While I have stayed at this hotel many times in the past year I will no longer be staying at this location.  Due to changed in the pet policy from $15/night to $75/night I will have to locate additional options to stay while working in this area.  Please be aware that the website does not reflect this change and still states it is $15/night, but upon check in I was notified that this policy is now $75/night.  As long as you are not traveling with a pet I would recommend this hotel to you as the staff is always very pleasant, one of the front desk ladies always remembers my Husky every time, and the rooms are always fresh and clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r129509739-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>129509739</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Great quiet place</t>
+  </si>
+  <si>
+    <t>Very close to Baptist West Houston hospital (on the same street).  We received a medical rate due to surgery.  Nice landscaping and hospitable staff.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r127825971-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>127825971</t>
+  </si>
+  <si>
+    <t>04/13/2012</t>
+  </si>
+  <si>
+    <t>Value plus - Relaxful, safe, and comfortable stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel during an extended business trip.  The room, bathroom, and kitchenette were nicely laid out and my king bed was very comfortable. I had no problems with housekeeping as they did a great job along with the front desk staff who were personable, helpful, and friendly.  A nicety I thought was the free use of the laundry service, with minimal charge for detergent. Coffee 24/7 is also a nice perk. The parking lot is well lit at night and there are different restaurants closeby to visit.  Also, there is a Walmart right across the street in case you need something.  Besides some guests with yappy dogs I heard at times (not everyone likes dogs!!), this facility was consistently clean, comfortable, and convenient to everything I needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel during an extended business trip.  The room, bathroom, and kitchenette were nicely laid out and my king bed was very comfortable. I had no problems with housekeeping as they did a great job along with the front desk staff who were personable, helpful, and friendly.  A nicety I thought was the free use of the laundry service, with minimal charge for detergent. Coffee 24/7 is also a nice perk. The parking lot is well lit at night and there are different restaurants closeby to visit.  Also, there is a Walmart right across the street in case you need something.  Besides some guests with yappy dogs I heard at times (not everyone likes dogs!!), this facility was consistently clean, comfortable, and convenient to everything I needed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r126623219-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -735,6 +1093,42 @@
   </si>
   <si>
     <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r117224303-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>117224303</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>We loved it</t>
+  </si>
+  <si>
+    <t>Cheap, Clean, Comfortable, Spacious, Love the kitchenette-had utensils, comfortable beds, nice &amp; cool, really enjoyed the stay, would recommend to all. Great location, Walmart, either Tom Thumb or Krogers close by. Love it!!!  I plan to stay here again next time I'm in the area, visiting from Dallas, TX.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r115248989-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>115248989</t>
+  </si>
+  <si>
+    <t>07/11/2011</t>
+  </si>
+  <si>
+    <t>Cheap, Clean, Pleasant &amp; Spacious</t>
+  </si>
+  <si>
+    <t>Had an extended stay, was very surprised &amp; pleased at the price, location, atmosphere &amp; comfort of the hotel. Hotel &amp; room were big &amp; spacious, clean &amp; tidy. Hotel staff were friendly, professional &amp; helpful. Even though there wasn't daily room service, all we had to do was take our towels to the front desk to exchange them. The king size bed was comfortable. Our room had a big tv &amp; dvd player; thought it was neat that we were able to go to the front desk &amp; pick out a complementary movie(s) for our room. There was also a snack lounge we could purchase drinks, snacks, etc.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r109894087-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
@@ -803,6 +1197,39 @@
 The only thing I can complain about is that...This is the first time I've stayed at a Candlewood Suites and I was very impressed. I booked them because of their price and their location.  $70/night for a studio with a full kitchen and king-sized bed is a great price, and they are close to everything in Katy, located right off of Fry Road, just north of the Katy Freeway.   The room was spotless, spacious and very quiet, the bed was extremely comfortable.  A very nice big screen TV with a DVD player, and free DVDs at the front desk.   The kitchen was nicely equipped, though we didn't use much beyond a few plates, the microwave and the coffee maker and there's a nice area out to the side of the building with BBQ grills and utensils you can check out from the front desk.  The building looks to be very new.  Since this is an extended stay type hotel, there is no daily maid service (service every 4 days if you stay that long), or you could always exchange your linens at the front desk whenever you wanted to.  I appreciated that they had a computer with a printer for no charge in the lobby.  There's no restaurant, but there is a little store with many basics or you could walk next door to the grocery store.  You are within minutes of tons of restaurants on Fry Road, also.  The only thing I can complain about is that for the first two days of our stay it took the shower a really long time to warm up and never got really hot.  By the third day, however, they seemed to have fixed the problems and hot water was in abundance.  Overall, it was a great stay and I think I've found a new favorite hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r91353723-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>91353723</t>
+  </si>
+  <si>
+    <t>01/01/2011</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>We had a group booking at this hotel that the staff could not have managed to mess up more. The service was abysmal. They lost bookings, didn't have the right number of beds available, didn't confirm airport shuttles when asked, and tried to separate families from children in order squeeze people in. Worse, they told us on the arrival day that they were an extended stay hotel so couldn't guarantee rooms, however they had taken the bookings (and money) in the first place. Shame, Candlewood, shame.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r90589381-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>90589381</t>
+  </si>
+  <si>
+    <t>12/23/2010</t>
+  </si>
+  <si>
+    <t>Great Facility and Wonderful Staff</t>
+  </si>
+  <si>
+    <t>We've been here two weeks now and plan on being here another week.  The rooms are really nice, clean and modern.  The staff at the front desk (especially Heather) are very friendly, helpful and make you feel like family.  Cleaning staff are very nice and do a wonderful job cleaning the rooms.  The exercise room, grilling area, snack room are really nice.  USA newspaper everyday is a nice touch.  Comfortable beds, good pillows and nice sheets.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r82638962-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
   </si>
   <si>
@@ -855,6 +1282,42 @@
   </si>
   <si>
     <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r59606657-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>59606657</t>
+  </si>
+  <si>
+    <t>03/26/2010</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Everyone from reservations to  check out were extremely nice and professional.  Room was spotless, comfortable and quiet.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r34376213-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>34376213</t>
+  </si>
+  <si>
+    <t>07/10/2009</t>
+  </si>
+  <si>
+    <t>Service with a smile</t>
+  </si>
+  <si>
+    <t>Booked several rooms for nearby family wedding - all traveling from different states &amp; countrys. Rooms were large &amp; very clean, off road so no noise. Prices pleasently affordable but best feature of hotel has to be the staf!  From reservations to General Manager contacted when left property, all extreamely helpful and well worth the stay. I would recomend this hotel to all visiting the Houston area.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1139613-r28888170-Candlewood_Suites_Houston_Park_10-Katy_Texas.html</t>
@@ -1425,7 +1888,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1545,7 +2008,7 @@
         <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1559,7 +2022,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1596,7 +2059,7 @@
         <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>74</v>
@@ -1653,33 +2116,27 @@
         <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1695,48 +2152,54 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>88</v>
       </c>
-      <c r="O7" t="s">
-        <v>75</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1752,48 +2215,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>95</v>
       </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1830,35 +2297,27 @@
         <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
         <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" t="s">
-        <v>103</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1874,44 +2333,54 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>106</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1927,54 +2396,48 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>110</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>111</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>112</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>113</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>114</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
-      </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2011,20 +2474,26 @@
         <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
         <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2068,37 +2537,33 @@
         <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
       <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>127</v>
-      </c>
-      <c r="X13" t="s">
-        <v>128</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2114,56 +2579,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
         <v>130</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>132</v>
       </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>135</v>
-      </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>136</v>
-      </c>
-      <c r="X14" t="s">
-        <v>137</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2179,7 +2636,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2188,29 +2645,27 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>145</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
@@ -2223,10 +2678,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -2242,62 +2701,44 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
         <v>146</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" t="s">
-        <v>150</v>
-      </c>
       <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>152</v>
-      </c>
-      <c r="X16" t="s">
-        <v>153</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2313,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2322,53 +2763,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>161</v>
-      </c>
-      <c r="X17" t="s">
-        <v>162</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -2384,7 +2811,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2393,41 +2820,37 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2435,7 +2858,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -2451,7 +2874,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2460,47 +2883,45 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -2516,7 +2937,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2525,49 +2946,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
@@ -2583,7 +2994,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2592,39 +3003,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -2640,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2649,37 +3070,33 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2688,14 +3105,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>198</v>
-      </c>
-      <c r="X22" t="s">
-        <v>199</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -2711,7 +3124,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2720,32 +3133,28 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
@@ -2754,7 +3163,7 @@
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2762,7 +3171,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -2778,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2787,49 +3196,47 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>197</v>
+      </c>
+      <c r="X24" t="s">
+        <v>198</v>
+      </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
@@ -2845,7 +3252,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2854,41 +3261,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2896,7 +3299,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
@@ -2912,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2921,49 +3324,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s">
+        <v>213</v>
+      </c>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
@@ -2979,7 +3386,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2988,37 +3395,37 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3030,7 +3437,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
@@ -3046,7 +3453,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3055,31 +3462,31 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>5</v>
@@ -3089,15 +3496,19 @@
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>226</v>
+      </c>
+      <c r="X28" t="s">
+        <v>227</v>
+      </c>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
@@ -3113,7 +3524,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3122,49 +3533,53 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>235</v>
+      </c>
+      <c r="X29" t="s">
+        <v>236</v>
+      </c>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
@@ -3180,7 +3595,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3189,41 +3604,41 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3231,7 +3646,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
@@ -3247,7 +3662,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3256,25 +3671,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3289,16 +3704,14 @@
         <v>5</v>
       </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
@@ -3314,7 +3727,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3323,41 +3736,41 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3365,7 +3778,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33">
@@ -3381,7 +3794,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3390,34 +3803,30 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s">
-        <v>264</v>
-      </c>
-      <c r="O33" t="s">
-        <v>68</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3432,7 +3841,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
@@ -3448,7 +3857,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3457,28 +3866,28 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
@@ -3499,7 +3908,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
@@ -3515,58 +3924,48 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>276</v>
+      </c>
+      <c r="X35" t="s">
         <v>277</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="Y35" t="s">
         <v>278</v>
-      </c>
-      <c r="J35" t="s">
-        <v>279</v>
-      </c>
-      <c r="K35" t="s">
-        <v>211</v>
-      </c>
-      <c r="L35" t="s">
-        <v>280</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>281</v>
-      </c>
-      <c r="O35" t="s">
-        <v>68</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="36">
@@ -3582,46 +3981,46 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
         <v>283</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>284</v>
       </c>
-      <c r="J36" t="s">
-        <v>285</v>
-      </c>
-      <c r="K36" t="s">
-        <v>286</v>
-      </c>
-      <c r="L36" t="s">
-        <v>287</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="N36" t="s">
-        <v>288</v>
-      </c>
-      <c r="O36" t="s">
-        <v>68</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -3630,10 +4029,1606 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>285</v>
+      </c>
+      <c r="X36" t="s">
+        <v>286</v>
+      </c>
       <c r="Y36" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="s">
+        <v>290</v>
+      </c>
+      <c r="K37" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>292</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>296</v>
+      </c>
+      <c r="J38" t="s">
+        <v>297</v>
+      </c>
+      <c r="K38" t="s">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s">
+        <v>299</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>305</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J40" t="s">
+        <v>309</v>
+      </c>
+      <c r="K40" t="s">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s">
+        <v>311</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>319</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>320</v>
+      </c>
+      <c r="J42" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" t="s">
+        <v>322</v>
+      </c>
+      <c r="L42" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s">
+        <v>336</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>337</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" t="s">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s">
+        <v>343</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>344</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" t="s">
+        <v>349</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>350</v>
+      </c>
+      <c r="O46" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>356</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s">
+        <v>374</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>375</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>384</v>
+      </c>
+      <c r="J52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s">
+        <v>386</v>
+      </c>
+      <c r="L52" t="s">
+        <v>387</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>393</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>399</v>
+      </c>
+      <c r="O54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>402</v>
+      </c>
+      <c r="J55" t="s">
+        <v>403</v>
+      </c>
+      <c r="K55" t="s">
+        <v>404</v>
+      </c>
+      <c r="L55" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>399</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>406</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>407</v>
+      </c>
+      <c r="J56" t="s">
+        <v>408</v>
+      </c>
+      <c r="K56" t="s">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s">
+        <v>410</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>411</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>412</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>413</v>
+      </c>
+      <c r="J57" t="s">
+        <v>414</v>
+      </c>
+      <c r="K57" t="s">
+        <v>415</v>
+      </c>
+      <c r="L57" t="s">
+        <v>416</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>417</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>419</v>
+      </c>
+      <c r="J58" t="s">
+        <v>420</v>
+      </c>
+      <c r="K58" t="s">
+        <v>421</v>
+      </c>
+      <c r="L58" t="s">
+        <v>422</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>423</v>
+      </c>
+      <c r="O58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>425</v>
+      </c>
+      <c r="J59" t="s">
+        <v>426</v>
+      </c>
+      <c r="K59" t="s">
+        <v>310</v>
+      </c>
+      <c r="L59" t="s">
+        <v>427</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>428</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58128</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>431</v>
+      </c>
+      <c r="J60" t="s">
+        <v>432</v>
+      </c>
+      <c r="K60" t="s">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s">
+        <v>434</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>435</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
